--- a/Overrides.xlsx
+++ b/Overrides.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Men</t>
   </si>
@@ -42,15 +42,6 @@
   </si>
   <si>
     <t>Event</t>
-  </si>
-  <si>
-    <t>200m</t>
-  </si>
-  <si>
-    <t>Kevin S</t>
-  </si>
-  <si>
-    <t>ILL</t>
   </si>
 </sst>
 </file>
@@ -405,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H3" sqref="E3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,20 +442,6 @@
       </c>
       <c r="H2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>23.2</v>
       </c>
     </row>
   </sheetData>
